--- a/Purchase Sheet.xlsx
+++ b/Purchase Sheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rollo\Documents\UAV Society Documents\Design Files\Sisyphus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F30DEE3-77B2-4332-9907-DBC4F0B903C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0B334D-5247-499C-BAF2-5B6EF0830A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-588" yWindow="4368" windowWidth="19200" windowHeight="10236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Battery Selection" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Item Name</t>
   </si>
@@ -69,6 +70,42 @@
   </si>
   <si>
     <t>Total Cost</t>
+  </si>
+  <si>
+    <t>p45b</t>
+  </si>
+  <si>
+    <t>21700 w/welding</t>
+  </si>
+  <si>
+    <t>21700 w/protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density </t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Diamiter</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Battery Name</t>
+  </si>
+  <si>
+    <t>https://www.cellsupply.co.uk/21700-batteries/lg-m50l-21700-battery-reclaimed</t>
+  </si>
+  <si>
+    <t>21700 Batteries</t>
+  </si>
+  <si>
+    <t>Nope</t>
   </si>
 </sst>
 </file>
@@ -421,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,7 +468,7 @@
     <col min="3" max="3" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.33203125" customWidth="1"/>
+    <col min="6" max="6" width="67.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -479,7 +516,7 @@
       </c>
       <c r="H2" s="7">
         <f>SUM(D:D)</f>
-        <v>280</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -501,9 +538,24 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>80</v>
+      </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -654,6 +706,225 @@
       <c r="D29" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2FB0B3-5E4B-43EA-B219-2F8BB84F19C7}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>14500</v>
+      </c>
+      <c r="B2">
+        <v>800</v>
+      </c>
+      <c r="E2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F2">
+        <f>B2/E2</f>
+        <v>42105.26315789474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>18500</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>0.03</v>
+      </c>
+      <c r="F3">
+        <f>B3/E3</f>
+        <v>33333.333333333336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>18650</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F4">
+        <f>B4/E4</f>
+        <v>45454.545454545456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>18500</v>
+      </c>
+      <c r="B5">
+        <v>2040</v>
+      </c>
+      <c r="E5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F5">
+        <f>B5/E5</f>
+        <v>61818.181818181816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>14500</v>
+      </c>
+      <c r="B6">
+        <v>2200</v>
+      </c>
+      <c r="E6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F6">
+        <f>B6/E6</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>18500</v>
+      </c>
+      <c r="B7">
+        <v>2600</v>
+      </c>
+      <c r="E7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F7">
+        <f>B7/E7</f>
+        <v>59090.909090909096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>18650</v>
+      </c>
+      <c r="B8">
+        <v>3200</v>
+      </c>
+      <c r="E8">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <f>B8/E8</f>
+        <v>69565.217391304352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>18500</v>
+      </c>
+      <c r="B9">
+        <v>4500</v>
+      </c>
+      <c r="E9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F9">
+        <f>B9/E9</f>
+        <v>64285.714285714283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>21700</v>
+      </c>
+      <c r="B10">
+        <v>4500</v>
+      </c>
+      <c r="E10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F10">
+        <f>B10/E10</f>
+        <v>64285.714285714283</v>
+      </c>
+      <c r="N10">
+        <f>(6*100*10)/70</f>
+        <v>85.714285714285708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>4900</v>
+      </c>
+      <c r="E11">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="F11">
+        <f>B11/E11</f>
+        <v>68245.125348189409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>4900</v>
+      </c>
+      <c r="E12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F12">
+        <f>B12/E12</f>
+        <v>72058.823529411762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4500</v>
+      </c>
+      <c r="E13">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F13">
+        <f>B13/E13</f>
+        <v>62500.000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Purchase Sheet.xlsx
+++ b/Purchase Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rollo\Documents\UAV Society Documents\Design Files\Sisyphus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0B334D-5247-499C-BAF2-5B6EF0830A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7636E4FC-3C5C-4F2D-B0B5-8EF078CCBAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4296" yWindow="3816" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Item Name</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Nope</t>
+  </si>
+  <si>
+    <t>https://fullbattery.com/products/sunpower-dogbone</t>
+  </si>
+  <si>
+    <t>Solar Cell interconnects</t>
   </si>
 </sst>
 </file>
@@ -116,7 +122,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +140,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,11 +176,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -175,9 +190,11 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,21 +519,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1">
         <f>B2*C2</f>
-        <v>90</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(D:D)</f>
-        <v>464</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -554,14 +571,26 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>88</v>
+      </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -709,6 +738,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{624F61FF-E84D-400F-B81E-26EB6FC9009B}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{F2D6DE2D-6F34-42BB-B4B1-184EFC4DC281}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -717,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2FB0B3-5E4B-43EA-B219-2F8BB84F19C7}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView zoomScale="145" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,7 +787,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="F2">
-        <f>B2/E2</f>
+        <f t="shared" ref="F2:F13" si="0">B2/E2</f>
         <v>42105.26315789474</v>
       </c>
     </row>
@@ -769,7 +802,7 @@
         <v>0.03</v>
       </c>
       <c r="F3">
-        <f>B3/E3</f>
+        <f t="shared" si="0"/>
         <v>33333.333333333336</v>
       </c>
     </row>
@@ -784,7 +817,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="F4">
-        <f>B4/E4</f>
+        <f t="shared" si="0"/>
         <v>45454.545454545456</v>
       </c>
     </row>
@@ -799,7 +832,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="F5">
-        <f>B5/E5</f>
+        <f t="shared" si="0"/>
         <v>61818.181818181816</v>
       </c>
     </row>
@@ -814,7 +847,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="F6">
-        <f>B6/E6</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
@@ -829,7 +862,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="F7">
-        <f>B7/E7</f>
+        <f t="shared" si="0"/>
         <v>59090.909090909096</v>
       </c>
     </row>
@@ -844,7 +877,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="F8">
-        <f>B8/E8</f>
+        <f t="shared" si="0"/>
         <v>69565.217391304352</v>
       </c>
     </row>
@@ -859,7 +892,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F9">
-        <f>B9/E9</f>
+        <f t="shared" si="0"/>
         <v>64285.714285714283</v>
       </c>
     </row>
@@ -874,7 +907,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F10">
-        <f>B10/E10</f>
+        <f t="shared" si="0"/>
         <v>64285.714285714283</v>
       </c>
       <c r="N10">
@@ -893,7 +926,7 @@
         <v>7.1800000000000003E-2</v>
       </c>
       <c r="F11">
-        <f>B11/E11</f>
+        <f t="shared" si="0"/>
         <v>68245.125348189409</v>
       </c>
     </row>
@@ -908,7 +941,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="F12">
-        <f>B12/E12</f>
+        <f t="shared" si="0"/>
         <v>72058.823529411762</v>
       </c>
     </row>
@@ -923,7 +956,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="F13">
-        <f>B13/E13</f>
+        <f t="shared" si="0"/>
         <v>62500.000000000007</v>
       </c>
     </row>
